--- a/simulation study/simulation_results.xlsx
+++ b/simulation study/simulation_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/Biometrika备份/Local dependence toolbox 2025125/simulation study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/revised_version_20251208/Local dependence toolbox 20251208/simulation_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBCBEDD-BF21-4347-957D-0EA23B9B1D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5590354-D291-D444-A02E-18E461B90CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="500" windowWidth="17980" windowHeight="16060" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="17980" windowHeight="16060" xr2:uid="{772B97B5-03B2-AC48-B62B-9B7792D58D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -162,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +183,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -500,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E5241-435D-1646-9C1E-010F994308C5}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,32 +530,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
@@ -566,16 +582,16 @@
       <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>85.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
         <v>77.7</v>
       </c>
     </row>
@@ -583,16 +599,16 @@
       <c r="D4" s="1">
         <v>200</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>0.224</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>87.9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>90</v>
       </c>
     </row>
@@ -600,16 +616,16 @@
       <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>90</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>93.8</v>
       </c>
     </row>
@@ -617,16 +633,16 @@
       <c r="D6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>94.6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="8">
         <v>94.1</v>
       </c>
     </row>
@@ -634,16 +650,16 @@
       <c r="D7" s="1">
         <v>2000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>9.4E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <v>94.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>0.01</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="8">
         <v>94.5</v>
       </c>
     </row>
@@ -657,16 +673,16 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>0.191</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>88.2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>89</v>
       </c>
     </row>
@@ -676,16 +692,16 @@
       <c r="D9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>0.192</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>88.6</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="7">
         <v>2.3E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>94.3</v>
       </c>
     </row>
@@ -695,16 +711,16 @@
       <c r="D10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>0.152</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>93.1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>94.6</v>
       </c>
     </row>
@@ -714,16 +730,16 @@
       <c r="D11" s="3">
         <v>1000</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>94.9</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>94.3</v>
       </c>
     </row>
@@ -733,16 +749,16 @@
       <c r="D12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>94.4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>95.8</v>
       </c>
     </row>
@@ -756,16 +772,16 @@
       <c r="D13" s="4">
         <v>100</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>0.159</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>90.5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="8">
         <v>92.6</v>
       </c>
     </row>
@@ -775,16 +791,16 @@
       <c r="D14" s="4">
         <v>200</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>0.151</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="8">
         <v>91.6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="8">
         <v>94.3</v>
       </c>
     </row>
@@ -794,16 +810,16 @@
       <c r="D15" s="4">
         <v>500</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>0.11</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="8">
         <v>95.4</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="8">
         <v>94.5</v>
       </c>
     </row>
@@ -813,16 +829,16 @@
       <c r="D16" s="4">
         <v>1000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="8">
         <v>94.9</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="8">
         <v>96.2</v>
       </c>
     </row>
@@ -832,16 +848,16 @@
       <c r="D17" s="4">
         <v>2000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="8">
         <v>93.6</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="8">
         <v>94.7</v>
       </c>
     </row>
@@ -858,16 +874,16 @@
       <c r="D18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="9">
         <v>91.5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <v>0.04</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="9">
         <v>92.3</v>
       </c>
     </row>
@@ -877,16 +893,16 @@
       <c r="D19" s="3">
         <v>200</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>0.155</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>94.3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>94.9</v>
       </c>
     </row>
@@ -896,16 +912,16 @@
       <c r="D20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>95.7</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>94.6</v>
       </c>
     </row>
@@ -915,16 +931,16 @@
       <c r="D21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>94.5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>95.1</v>
       </c>
     </row>
@@ -934,16 +950,16 @@
       <c r="D22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>95.8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>95.3</v>
       </c>
     </row>
@@ -957,16 +973,16 @@
       <c r="D23" s="1">
         <v>100</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <v>92.7</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="8">
         <v>93.7</v>
       </c>
     </row>
@@ -975,16 +991,16 @@
       <c r="D24" s="1">
         <v>200</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>0.124</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="8">
         <v>91.7</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="8">
         <v>93.9</v>
       </c>
     </row>
@@ -993,16 +1009,16 @@
       <c r="D25" s="1">
         <v>500</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="8">
         <v>95.7</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="8">
         <v>94.7</v>
       </c>
     </row>
@@ -1011,16 +1027,16 @@
       <c r="D26" s="1">
         <v>1000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="8">
         <v>94.5</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="8">
         <v>95.1</v>
       </c>
     </row>
@@ -1029,16 +1045,16 @@
       <c r="D27" s="1">
         <v>2000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="8">
         <v>95.8</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="8">
         <v>95.3</v>
       </c>
     </row>
@@ -1052,16 +1068,16 @@
       <c r="D28" s="3">
         <v>100</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="7">
         <v>0.124</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="9">
         <v>93.8</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="9">
         <v>93.4</v>
       </c>
     </row>
@@ -1071,16 +1087,16 @@
       <c r="D29" s="3">
         <v>200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="7">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="9">
         <v>94.3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="9">
         <v>93.6</v>
       </c>
     </row>
@@ -1090,16 +1106,16 @@
       <c r="D30" s="3">
         <v>500</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="9">
         <v>93.9</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="9">
         <v>94.7</v>
       </c>
     </row>
@@ -1109,16 +1125,16 @@
       <c r="D31" s="3">
         <v>1000</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="9">
         <v>96.2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="9">
         <v>95.3</v>
       </c>
     </row>
@@ -1128,16 +1144,16 @@
       <c r="D32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="9">
         <v>95.8</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="9">
         <v>95.3</v>
       </c>
     </row>
@@ -1151,16 +1167,16 @@
       <c r="D33" s="1">
         <v>100</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="8">
         <v>89.1</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="8">
         <v>92.7</v>
       </c>
     </row>
@@ -1168,16 +1184,16 @@
       <c r="D34" s="1">
         <v>200</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <v>0.223</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="8">
         <v>90.2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="8">
         <v>95.9</v>
       </c>
     </row>
@@ -1185,16 +1201,16 @@
       <c r="D35" s="1">
         <v>500</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="8">
         <v>95.5</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="8">
         <v>95.1</v>
       </c>
     </row>
@@ -1202,16 +1218,16 @@
       <c r="D36" s="1">
         <v>1000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="8">
         <v>94.9</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="8">
         <v>96</v>
       </c>
     </row>
@@ -1219,16 +1235,16 @@
       <c r="D37" s="1">
         <v>2000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="8">
         <v>95.5</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="8">
         <v>94.7</v>
       </c>
     </row>
@@ -1242,16 +1258,16 @@
       <c r="D38" s="3">
         <v>100</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="7">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="9">
         <v>86.8</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="9">
         <v>90.1</v>
       </c>
     </row>
@@ -1261,16 +1277,16 @@
       <c r="D39" s="3">
         <v>200</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="7">
         <v>0.20599999999999999</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="9">
         <v>90.9</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="7">
         <v>0.02</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="9">
         <v>93.6</v>
       </c>
     </row>
@@ -1280,16 +1296,16 @@
       <c r="D40" s="3">
         <v>500</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="7">
         <v>0.108</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="9">
         <v>94.1</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="9">
         <v>96.2</v>
       </c>
     </row>
@@ -1299,16 +1315,16 @@
       <c r="D41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="9">
         <v>95.5</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="9">
         <v>94.9</v>
       </c>
     </row>
@@ -1318,16 +1334,16 @@
       <c r="D42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="9">
         <v>95.4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="7">
         <v>0.01</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="9">
         <v>93.5</v>
       </c>
     </row>
@@ -1341,16 +1357,16 @@
       <c r="D43" s="1">
         <v>100</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="6">
         <v>0.20599999999999999</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="8">
         <v>91.3</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="8">
         <v>95.2</v>
       </c>
     </row>
@@ -1358,16 +1374,16 @@
       <c r="D44" s="1">
         <v>200</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="8">
         <v>94.8</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="8">
         <v>94.7</v>
       </c>
     </row>
@@ -1375,16 +1391,16 @@
       <c r="D45" s="1">
         <v>500</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="8">
         <v>95.7</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="8">
         <v>94.4</v>
       </c>
     </row>
@@ -1392,16 +1408,16 @@
       <c r="D46" s="1">
         <v>1000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="8">
         <v>95.3</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="8">
         <v>95</v>
       </c>
     </row>
@@ -1409,16 +1425,16 @@
       <c r="D47" s="1">
         <v>2000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="8">
         <v>94.8</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="8">
         <v>94.5</v>
       </c>
     </row>
@@ -1432,16 +1448,16 @@
       <c r="D48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="7">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="9">
         <v>88.8</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="9">
         <v>94</v>
       </c>
     </row>
@@ -1451,16 +1467,16 @@
       <c r="D49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="7">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="9">
         <v>89.2</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="9">
         <v>96</v>
       </c>
     </row>
@@ -1470,16 +1486,16 @@
       <c r="D50" s="3">
         <v>500</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="7">
         <v>0.159</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="9">
         <v>94.5</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="7">
         <v>2E-3</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="9">
         <v>93.4</v>
       </c>
     </row>
@@ -1489,16 +1505,16 @@
       <c r="D51" s="3">
         <v>1000</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="7">
         <v>0.107</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="9">
         <v>94.6</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="9">
         <v>95.2</v>
       </c>
     </row>
@@ -1508,16 +1524,16 @@
       <c r="D52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="9">
         <v>94.1</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="9">
         <v>94</v>
       </c>
     </row>
@@ -1531,16 +1547,16 @@
       <c r="D53" s="1">
         <v>100</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="6">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="8">
         <v>88.5</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="8">
         <v>94.7</v>
       </c>
     </row>
@@ -1548,16 +1564,16 @@
       <c r="D54" s="1">
         <v>200</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="6">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="8">
         <v>92.6</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="8">
         <v>94.8</v>
       </c>
     </row>
@@ -1565,16 +1581,16 @@
       <c r="D55" s="1">
         <v>500</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="6">
         <v>0.112</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="8">
         <v>95.6</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="8">
         <v>94.8</v>
       </c>
     </row>
@@ -1582,16 +1598,16 @@
       <c r="D56" s="1">
         <v>1000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="8">
         <v>95.4</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="8">
         <v>95.5</v>
       </c>
     </row>
@@ -1599,16 +1615,16 @@
       <c r="D57" s="1">
         <v>2000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="8">
         <v>94.3</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="6">
         <v>2E-3</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="8">
         <v>94.3</v>
       </c>
     </row>
@@ -1622,16 +1638,16 @@
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="7">
         <v>0.217</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="9">
         <v>89.9</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="9">
         <v>94.8</v>
       </c>
     </row>
@@ -1641,16 +1657,16 @@
       <c r="D59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="7">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="9">
         <v>93</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="7">
         <v>0.01</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="9">
         <v>96.5</v>
       </c>
     </row>
@@ -1660,16 +1676,16 @@
       <c r="D60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="9">
         <v>94.7</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="9">
         <v>94.8</v>
       </c>
     </row>
@@ -1679,16 +1695,16 @@
       <c r="D61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="7">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="9">
         <v>95.1</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="9">
         <v>94</v>
       </c>
     </row>
@@ -1698,16 +1714,16 @@
       <c r="D62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="9">
         <v>95.5</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="9">
         <v>94.5</v>
       </c>
     </row>
@@ -1724,16 +1740,16 @@
       <c r="D63" s="1">
         <v>100</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="6">
         <v>0.251</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="8">
         <v>86.4</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="8">
         <v>65.3</v>
       </c>
       <c r="I63" s="1"/>
@@ -1743,16 +1759,16 @@
       <c r="D64" s="1">
         <v>200</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="6">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="8">
         <v>90</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="8">
         <v>83.4</v>
       </c>
       <c r="I64" s="1"/>
@@ -1762,16 +1778,16 @@
       <c r="D65" s="1">
         <v>500</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="6">
         <v>0.224</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="8">
         <v>90.6</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="8">
         <v>95.7</v>
       </c>
       <c r="I65" s="1"/>
@@ -1781,16 +1797,16 @@
       <c r="D66" s="1">
         <v>1000</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="6">
         <v>0.192</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="8">
         <v>92.4</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="8">
         <v>94.5</v>
       </c>
       <c r="I66" s="1"/>
@@ -1800,16 +1816,16 @@
       <c r="D67" s="1">
         <v>2000</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="6">
         <v>0.124</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="8">
         <v>95.5</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="8">
         <v>94.9</v>
       </c>
       <c r="I67" s="1"/>
@@ -1825,16 +1841,16 @@
       <c r="D68" s="3">
         <v>100</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="7">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="9">
         <v>86.8</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="9">
         <v>90.1</v>
       </c>
       <c r="I68" s="1"/>
@@ -1846,16 +1862,16 @@
       <c r="D69" s="3">
         <v>200</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="7">
         <v>0.20599999999999999</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="9">
         <v>90.9</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="7">
         <v>0.02</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="9">
         <v>93.6</v>
       </c>
       <c r="I69" s="1"/>
@@ -1867,16 +1883,16 @@
       <c r="D70" s="3">
         <v>500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="9">
         <v>93.7</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="9">
         <v>94.1</v>
       </c>
       <c r="I70" s="1"/>
@@ -1888,16 +1904,16 @@
       <c r="D71" s="3">
         <v>1000</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="7">
         <v>0.121</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="9">
         <v>93.8</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="9">
         <v>95.6</v>
       </c>
       <c r="I71" s="1"/>
@@ -1909,16 +1925,16 @@
       <c r="D72" s="3">
         <v>2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="7">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="9">
         <v>93.8</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="9">
         <v>93.7</v>
       </c>
       <c r="I72" s="1"/>
@@ -1934,16 +1950,16 @@
       <c r="D73" s="1">
         <v>100</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="8">
         <v>90.2</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="8">
         <v>92</v>
       </c>
       <c r="I73" s="1"/>
@@ -1953,16 +1969,16 @@
       <c r="D74" s="1">
         <v>200</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="6">
         <v>0.185</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="8">
         <v>89.4</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="8">
         <v>94.2</v>
       </c>
       <c r="I74" s="1"/>
@@ -1972,16 +1988,16 @@
       <c r="D75" s="1">
         <v>500</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="6">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="8">
         <v>94.4</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="8">
         <v>95.5</v>
       </c>
       <c r="I75" s="1"/>
@@ -1991,16 +2007,16 @@
       <c r="D76" s="1">
         <v>1000</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="8">
         <v>95</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="8">
         <v>95.1</v>
       </c>
       <c r="I76" s="1"/>
@@ -2010,16 +2026,16 @@
       <c r="D77" s="1">
         <v>2000</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="8">
         <v>93.8</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="8">
         <v>93.7</v>
       </c>
       <c r="I77" s="1"/>
@@ -2037,16 +2053,16 @@
       <c r="D78" s="3">
         <v>100</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="7">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="9">
         <v>88</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="7">
         <v>2E-3</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="9">
         <v>95.6</v>
       </c>
       <c r="I78" s="1"/>
@@ -2058,16 +2074,16 @@
       <c r="D79" s="3">
         <v>200</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="7">
         <v>0.219</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="9">
         <v>90.6</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="9">
         <v>95.7</v>
       </c>
       <c r="I79" s="1"/>
@@ -2079,16 +2095,16 @@
       <c r="D80" s="3">
         <v>500</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="7">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="9">
         <v>93.9</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="9">
         <v>94.9</v>
       </c>
       <c r="I80" s="1"/>
@@ -2100,16 +2116,16 @@
       <c r="D81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="9">
         <v>95.2</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="9">
         <v>95</v>
       </c>
       <c r="I81" s="1"/>
@@ -2121,16 +2137,16 @@
       <c r="D82" s="3">
         <v>2000</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="7">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="9">
         <v>95.3</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="9">
         <v>95.4</v>
       </c>
       <c r="I82" s="1"/>
@@ -2146,16 +2162,16 @@
       <c r="D83" s="1">
         <v>100</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="6">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="8">
         <v>88.8</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="8">
         <v>96.6</v>
       </c>
       <c r="I83" s="1"/>
@@ -2165,16 +2181,16 @@
       <c r="D84" s="1">
         <v>200</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="8">
         <v>91.9</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="6">
         <v>2E-3</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="8">
         <v>94.7</v>
       </c>
       <c r="I84" s="1"/>
@@ -2184,16 +2200,16 @@
       <c r="D85" s="1">
         <v>500</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="6">
         <v>0.113</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="8">
         <v>95.7</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="8">
         <v>95.5</v>
       </c>
       <c r="I85" s="1"/>
@@ -2203,16 +2219,16 @@
       <c r="D86" s="1">
         <v>1000</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="8">
         <v>95.2</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="8">
         <v>93.8</v>
       </c>
       <c r="I86" s="1"/>
@@ -2222,16 +2238,16 @@
       <c r="D87" s="1">
         <v>2000</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="6">
         <v>0.05</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="8">
         <v>94.6</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="6">
         <v>2E-3</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="8">
         <v>94.7</v>
       </c>
       <c r="I87" s="1"/>
@@ -2247,16 +2263,16 @@
       <c r="D88" s="3">
         <v>100</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="9">
         <v>89.9</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="9">
         <v>96</v>
       </c>
       <c r="I88" s="1"/>
@@ -2268,16 +2284,16 @@
       <c r="D89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="7">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="9">
         <v>94.8</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="9">
         <v>95.3</v>
       </c>
       <c r="I89" s="1"/>
@@ -2289,16 +2305,16 @@
       <c r="D90" s="3">
         <v>500</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="7">
         <v>0.105</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="9">
         <v>92.7</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="9">
         <v>94.2</v>
       </c>
       <c r="I90" s="1"/>
@@ -2310,16 +2326,16 @@
       <c r="D91" s="3">
         <v>1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="9">
         <v>94.6</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="7">
         <v>2E-3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="9">
         <v>93.8</v>
       </c>
       <c r="I91" s="1"/>
@@ -2331,16 +2347,16 @@
       <c r="D92" s="3">
         <v>2000</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="7">
         <v>0.05</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="9">
         <v>94.6</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="7">
         <v>2E-3</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="9">
         <v>94.7</v>
       </c>
       <c r="I92" s="1"/>
@@ -2356,16 +2372,16 @@
       <c r="D93" s="1">
         <v>100</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="6">
         <v>0.221</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="8">
         <v>90.1</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="8">
         <v>91.6</v>
       </c>
       <c r="I93" s="1"/>
@@ -2375,16 +2391,16 @@
       <c r="D94" s="1">
         <v>200</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="6">
         <v>0.193</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="8">
         <v>92.5</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="8">
         <v>95.9</v>
       </c>
       <c r="I94" s="1"/>
@@ -2394,16 +2410,16 @@
       <c r="D95" s="1">
         <v>500</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="6">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="8">
         <v>94.2</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="8">
         <v>95.8</v>
       </c>
       <c r="I95" s="1"/>
@@ -2413,16 +2429,16 @@
       <c r="D96" s="1">
         <v>1000</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="8">
         <v>95.2</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="6">
         <v>0.01</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="8">
         <v>94.8</v>
       </c>
       <c r="I96" s="1"/>
@@ -2432,16 +2448,16 @@
       <c r="D97" s="1">
         <v>2000</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="6">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="8">
         <v>95.3</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="6">
         <v>2E-3</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="8">
         <v>95</v>
       </c>
       <c r="I97" s="1"/>
@@ -2457,16 +2473,16 @@
       <c r="D98" s="3">
         <v>100</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="7">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="9">
         <v>90.4</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="9">
         <v>94.9</v>
       </c>
       <c r="I98" s="1"/>
@@ -2478,16 +2494,16 @@
       <c r="D99" s="3">
         <v>200</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="9">
         <v>93.2</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="9">
         <v>95.2</v>
       </c>
       <c r="I99" s="1"/>
@@ -2499,16 +2515,16 @@
       <c r="D100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="7">
         <v>0.08</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="9">
         <v>95.3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="9">
         <v>94.7</v>
       </c>
       <c r="I100" s="1"/>
@@ -2520,16 +2536,16 @@
       <c r="D101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="7">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="9">
         <v>95.2</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="9">
         <v>95.1</v>
       </c>
       <c r="I101" s="1"/>
@@ -2541,16 +2557,16 @@
       <c r="D102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="9">
         <v>95.3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="9">
         <v>95.4</v>
       </c>
       <c r="I102" s="1"/>
@@ -2566,16 +2582,16 @@
       <c r="D103" s="1">
         <v>100</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="6">
         <v>0.157</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="8">
         <v>93.8</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="8">
         <v>93.5</v>
       </c>
       <c r="I103" s="1"/>
@@ -2585,16 +2601,16 @@
       <c r="D104" s="1">
         <v>200</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="6">
         <v>0.108</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="8">
         <v>94.9</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="8">
         <v>94</v>
       </c>
       <c r="I104" s="1"/>
@@ -2604,16 +2620,16 @@
       <c r="D105" s="1">
         <v>500</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="6">
         <v>6.2E-2</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="8">
         <v>95.4</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="8">
         <v>96.1</v>
       </c>
       <c r="I105" s="1"/>
@@ -2623,16 +2639,16 @@
       <c r="D106" s="1">
         <v>1000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="8">
         <v>94.5</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="8">
         <v>94.5</v>
       </c>
       <c r="I106" s="1"/>
@@ -2642,16 +2658,16 @@
       <c r="D107" s="1">
         <v>2000</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="8">
         <v>94.2</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="8">
         <v>95.4</v>
       </c>
       <c r="I107" s="1"/>
@@ -2667,16 +2683,16 @@
       <c r="D108" s="3">
         <v>100</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="7">
         <v>0.248</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="9">
         <v>88</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="9">
         <v>93.8</v>
       </c>
       <c r="I108" s="1"/>
@@ -2688,16 +2704,16 @@
       <c r="D109" s="3">
         <v>200</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="7">
         <v>0.23</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="9">
         <v>89.4</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="9">
         <v>96.3</v>
       </c>
       <c r="I109" s="1"/>
@@ -2709,16 +2725,16 @@
       <c r="D110" s="3">
         <v>500</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="7">
         <v>0.16</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="9">
         <v>94.7</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="7">
         <v>2E-3</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="9">
         <v>94</v>
       </c>
       <c r="I110" s="1"/>
@@ -2730,16 +2746,16 @@
       <c r="D111" s="3">
         <v>1000</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="7">
         <v>0.105</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="9">
         <v>95.2</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="7">
         <v>1E-3</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="9">
         <v>95</v>
       </c>
       <c r="I111" s="1"/>
@@ -2751,16 +2767,16 @@
       <c r="D112" s="3">
         <v>2000</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="9">
         <v>90</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="9">
         <v>93.8</v>
       </c>
       <c r="I112" s="1"/>
@@ -2776,16 +2792,16 @@
       <c r="D113" s="1">
         <v>100</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="6">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="8">
         <v>89</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="8">
         <v>95.1</v>
       </c>
       <c r="I113" s="1"/>
@@ -2795,16 +2811,16 @@
       <c r="D114" s="1">
         <v>200</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="6">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="8">
         <v>92</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="8">
         <v>95.2</v>
       </c>
       <c r="I114" s="1"/>
@@ -2814,16 +2830,16 @@
       <c r="D115" s="1">
         <v>500</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="6">
         <v>0.115</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="8">
         <v>94.1</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="8">
         <v>95.5</v>
       </c>
       <c r="I115" s="1"/>
@@ -2833,16 +2849,16 @@
       <c r="D116" s="1">
         <v>1000</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="8">
         <v>95.2</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="8">
         <v>94.2</v>
       </c>
       <c r="I116" s="1"/>
@@ -2852,16 +2868,16 @@
       <c r="D117" s="1">
         <v>2000</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="8">
         <v>95.4</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="6">
         <v>2E-3</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="8">
         <v>95.2</v>
       </c>
       <c r="I117" s="1"/>
@@ -2877,16 +2893,16 @@
       <c r="D118" s="3">
         <v>100</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="7">
         <v>0.216</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="9">
         <v>90.7</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="9">
         <v>95.4</v>
       </c>
       <c r="I118" s="1"/>
@@ -2898,16 +2914,16 @@
       <c r="D119" s="3">
         <v>200</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="7">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="9">
         <v>92.9</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="7">
         <v>0.01</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="9">
         <v>95.4</v>
       </c>
       <c r="I119" s="1"/>
@@ -2919,16 +2935,16 @@
       <c r="D120" s="3">
         <v>500</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="9">
         <v>95.2</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="9">
         <v>94.6</v>
       </c>
       <c r="I120" s="1"/>
@@ -2940,16 +2956,16 @@
       <c r="D121" s="3">
         <v>1000</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="9">
         <v>94.5</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="9">
         <v>96.6</v>
       </c>
       <c r="I121" s="1"/>
@@ -2961,16 +2977,16 @@
       <c r="D122" s="3">
         <v>2000</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="9">
         <v>94.3</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="9">
         <v>93.6</v>
       </c>
       <c r="I122" s="1"/>
@@ -2988,16 +3004,16 @@
       <c r="D123" s="1">
         <v>100</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="6">
         <v>0.104</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="8">
         <v>94</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="8">
         <v>93.5</v>
       </c>
       <c r="I123" s="1"/>
@@ -3007,16 +3023,16 @@
       <c r="D124" s="1">
         <v>200</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="8">
         <v>95.6</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="8">
         <v>95.2</v>
       </c>
       <c r="I124" s="1"/>
@@ -3026,16 +3042,16 @@
       <c r="D125" s="1">
         <v>500</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="8">
         <v>95.7</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="8">
         <v>95.4</v>
       </c>
       <c r="I125" s="1"/>
@@ -3045,16 +3061,16 @@
       <c r="D126" s="1">
         <v>1000</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="8">
         <v>94.3</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="8">
         <v>95</v>
       </c>
       <c r="I126" s="1"/>
@@ -3064,16 +3080,16 @@
       <c r="D127" s="1">
         <v>2000</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="8">
         <v>95.6</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="8">
         <v>94.3</v>
       </c>
       <c r="I127" s="1"/>
@@ -3089,16 +3105,16 @@
       <c r="D128" s="3">
         <v>100</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="9">
         <v>94</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="9">
         <v>93.9</v>
       </c>
       <c r="I128" s="1"/>
@@ -3110,16 +3126,16 @@
       <c r="D129" s="3">
         <v>200</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="7">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="9">
         <v>94.3</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="9">
         <v>93.1</v>
       </c>
       <c r="I129" s="1"/>
@@ -3131,16 +3147,16 @@
       <c r="D130" s="3">
         <v>500</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="7">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="9">
         <v>94.3</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="9">
         <v>93.9</v>
       </c>
       <c r="I130" s="1"/>
@@ -3152,16 +3168,16 @@
       <c r="D131" s="3">
         <v>1000</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="9">
         <v>93.3</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="9">
         <v>95.2</v>
       </c>
       <c r="I131" s="1"/>
@@ -3173,16 +3189,16 @@
       <c r="D132" s="3">
         <v>2000</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="7">
         <v>1.9E-2</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="9">
         <v>95.4</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="9">
         <v>95.2</v>
       </c>
       <c r="I132" s="1"/>
@@ -3198,16 +3214,16 @@
       <c r="D133" s="1">
         <v>100</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="8">
         <v>95</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="8">
         <v>94</v>
       </c>
       <c r="I133" s="1"/>
@@ -3217,16 +3233,16 @@
       <c r="D134" s="1">
         <v>200</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="8">
         <v>94.7</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="8">
         <v>94.5</v>
       </c>
       <c r="I134" s="1"/>
@@ -3236,16 +3252,16 @@
       <c r="D135" s="1">
         <v>500</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="8">
         <v>94.1</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="8">
         <v>94.9</v>
       </c>
       <c r="I135" s="1"/>
@@ -3255,16 +3271,16 @@
       <c r="D136" s="1">
         <v>1000</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="8">
         <v>95.1</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="8">
         <v>95.1</v>
       </c>
       <c r="I136" s="1"/>
@@ -3274,16 +3290,16 @@
       <c r="D137" s="1">
         <v>2000</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="8">
         <v>95.9</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="8">
         <v>94.5</v>
       </c>
       <c r="I137" s="1"/>
@@ -3299,16 +3315,16 @@
       <c r="D138" s="3">
         <v>100</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="7">
         <v>0.106</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="9">
         <v>94.1</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="9">
         <v>94.3</v>
       </c>
       <c r="I138" s="1"/>
@@ -3320,16 +3336,16 @@
       <c r="D139" s="3">
         <v>200</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="9">
         <v>94</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="9">
         <v>94.7</v>
       </c>
       <c r="I139" s="1"/>
@@ -3341,16 +3357,16 @@
       <c r="D140" s="3">
         <v>500</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="9">
         <v>94.7</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="9">
         <v>93.9</v>
       </c>
       <c r="I140" s="1"/>
@@ -3362,16 +3378,16 @@
       <c r="D141" s="3">
         <v>1000</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="7">
         <v>3.1E-2</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="9">
         <v>94.8</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="9">
         <v>94.6</v>
       </c>
       <c r="I141" s="1"/>
@@ -3383,16 +3399,16 @@
       <c r="D142" s="3">
         <v>2000</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="9">
         <v>94.3</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="9">
         <v>94.7</v>
       </c>
       <c r="I142" s="1"/>
@@ -3408,16 +3424,16 @@
       <c r="D143" s="1">
         <v>100</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="8">
         <v>94.1</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="8">
         <v>94.4</v>
       </c>
       <c r="I143" s="1"/>
@@ -3427,16 +3443,16 @@
       <c r="D144" s="1">
         <v>200</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="8">
         <v>94.5</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="8">
         <v>94.8</v>
       </c>
       <c r="I144" s="1"/>
@@ -3446,16 +3462,16 @@
       <c r="D145" s="1">
         <v>500</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="8">
         <v>96.1</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="8">
         <v>95.9</v>
       </c>
       <c r="I145" s="1"/>
@@ -3465,16 +3481,16 @@
       <c r="D146" s="1">
         <v>1000</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="8">
         <v>95.6</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146" s="6">
         <v>0.01</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="8">
         <v>95.3</v>
       </c>
       <c r="I146" s="1"/>
@@ -3484,16 +3500,16 @@
       <c r="D147" s="1">
         <v>2000</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="6">
         <v>0.02</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="8">
         <v>93.9</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="8">
         <v>95.3</v>
       </c>
       <c r="I147" s="1"/>
@@ -3509,16 +3525,16 @@
       <c r="D148" s="3">
         <v>100</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="9">
         <v>94.9</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="7">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="9">
         <v>94.7</v>
       </c>
       <c r="I148" s="1"/>
@@ -3530,16 +3546,16 @@
       <c r="D149" s="3">
         <v>200</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="7">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="9">
         <v>95.5</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G149" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="9">
         <v>93.6</v>
       </c>
       <c r="I149" s="1"/>
@@ -3551,16 +3567,16 @@
       <c r="D150" s="3">
         <v>500</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="9">
         <v>95.3</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="9">
         <v>96.3</v>
       </c>
       <c r="I150" s="1"/>
@@ -3572,16 +3588,16 @@
       <c r="D151" s="3">
         <v>1000</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="9">
         <v>94.2</v>
       </c>
-      <c r="G151" s="3">
+      <c r="G151" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="9">
         <v>94.9</v>
       </c>
       <c r="I151" s="1"/>
@@ -3593,16 +3609,16 @@
       <c r="D152" s="3">
         <v>2000</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="9">
         <v>95.1</v>
       </c>
-      <c r="G152" s="3">
+      <c r="G152" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="9">
         <v>94.5</v>
       </c>
       <c r="I152" s="1"/>
@@ -3618,16 +3634,16 @@
       <c r="D153" s="1">
         <v>100</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="6">
         <v>0.111</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="8">
         <v>93.7</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="8">
         <v>90.9</v>
       </c>
       <c r="I153" s="1"/>
@@ -3637,16 +3653,16 @@
       <c r="D154" s="1">
         <v>200</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="8">
         <v>93.7</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154" s="6">
         <v>0.02</v>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="8">
         <v>93.8</v>
       </c>
       <c r="I154" s="1"/>
@@ -3656,16 +3672,16 @@
       <c r="D155" s="1">
         <v>500</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="8">
         <v>95.6</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="8">
         <v>94.8</v>
       </c>
       <c r="I155" s="1"/>
@@ -3675,16 +3691,16 @@
       <c r="D156" s="1">
         <v>1000</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="8">
         <v>94.3</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="8">
         <v>95.2</v>
       </c>
       <c r="I156" s="1"/>
@@ -3694,117 +3710,125 @@
       <c r="D157" s="1">
         <v>2000</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="8">
         <v>95.9</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="8">
         <v>94.2</v>
       </c>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158"/>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="3">
         <v>4</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="3">
         <v>100</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="7">
         <v>0.104</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="9">
         <v>93.4</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="9">
         <v>95.9</v>
       </c>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159"/>
-      <c r="D159" s="1">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3">
         <v>200</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="9">
         <v>94.9</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="9">
         <v>93.8</v>
       </c>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160"/>
-      <c r="D160" s="1">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3">
         <v>500</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="7">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="9">
         <v>94.5</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="9">
         <v>94.3</v>
       </c>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161"/>
-      <c r="D161" s="1">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3">
         <v>1000</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="7">
         <v>0.03</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="9">
         <v>95.6</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="9">
         <v>95.5</v>
       </c>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162"/>
-      <c r="D162" s="1">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3">
         <v>2000</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="7">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="9">
         <v>94.5</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="9">
         <v>94.3</v>
       </c>
       <c r="I162" s="1"/>
@@ -3820,16 +3844,16 @@
       <c r="D163" s="1">
         <v>100</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="6">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="8">
         <v>95.6</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="8">
         <v>94.9</v>
       </c>
       <c r="I163" s="1"/>
@@ -3839,16 +3863,16 @@
       <c r="D164" s="1">
         <v>200</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="8">
         <v>94.7</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164" s="6">
         <v>0.03</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="8">
         <v>92.8</v>
       </c>
       <c r="I164" s="1"/>
@@ -3858,16 +3882,16 @@
       <c r="D165" s="1">
         <v>500</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="8">
         <v>94</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="8">
         <v>93.4</v>
       </c>
       <c r="I165" s="1"/>
@@ -3877,16 +3901,16 @@
       <c r="D166" s="1">
         <v>1000</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="8">
         <v>94.5</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="8">
         <v>94.2</v>
       </c>
       <c r="I166" s="1"/>
@@ -3896,16 +3920,16 @@
       <c r="D167" s="1">
         <v>2000</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="8">
         <v>94.1</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="8">
         <v>95.1</v>
       </c>
       <c r="I167" s="1"/>
